--- a/biology/Botanique/Pleione/Pleione.xlsx
+++ b/biology/Botanique/Pleione/Pleione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleione (les Pléiones en français) est un genre d'orchidées principalement terrestres, originaire d'Asie, incluant la Chine.
 Ces plantes forment des pseudobulbes à feuille unique. Au printemps, de chaque pseudobulbe émerge une pousse à feuille et fleur uniques qui après floraison développe un nouveau pseudobulbe. La feuille disparait à l'automne et la plante entre en dormance jusqu'au printemps suivant.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleione est nommé ainsi en référence à la nymphe des eaux Pléioné mère des Pléiades dans la mythologie grecque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleione est nommé ainsi en référence à la nymphe des eaux Pléioné mère des Pléiades dans la mythologie grecque.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Pleione est distribué en Asie dans les montagnes et les contreforts de l'Himalaya, en Inde, au Tibet, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, au Laos, au Vietnam, à Taïwan et en Chine[2]. Les espèces sont bien adaptées aux températures froides et même au gel. Quelques-unes, cependant, préfèrent les températures plus chaudes. Elles poussent dans des habitats bien drainés et sur des roches recouvertes de mousse à des altitudes de 600 à 4 200 m.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pleione est distribué en Asie dans les montagnes et les contreforts de l'Himalaya, en Inde, au Tibet, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, au Laos, au Vietnam, à Taïwan et en Chine. Les espèces sont bien adaptées aux températures froides et même au gel. Quelques-unes, cependant, préfèrent les températures plus chaudes. Elles poussent dans des habitats bien drainés et sur des roches recouvertes de mousse à des altitudes de 600 à 4 200 m.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleione albiflora (Chine - Ouest Yunnan jusqu’au Nord Birmanie).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pleione albiflora (Chine - Ouest Yunnan jusqu’au Nord Birmanie).
 Pleione aurita (Chine - Ouest Yunnan).
 Pleione autumnalis Chine (Sud-Ouest Yunnan).
 Pleione arunachalensis ( Arunachal Pradesh).
@@ -602,9 +620,43 @@
 Il a été suggéré que P. bulbocodioides, P. limprichtii et P. pleionoides pourraient être la même espèce.
 Il y a actuellement deux sections dans le genre Pleione :
 section Pleione (comprend les espèces à floraison automnale): P. × lagenaria, P. maculata, P. praecox, P. saxicola
-section Humiles (comprend les espèces à floraison printanière): P. albiflora, P. bulbocodioides, P. chunii, P. × confusa, P. coronaria, P. formosana, P. forrestii, ¨P. grandiflora, P. hookeriana, P. praecox, P. × kohlsii, P. limprichtii, P. pleionoides, P. scopulorum, P. yunnanensis
-Liste des espèces d’après Kew WCSP
-(date ref :16/07/2018)[2]
+section Humiles (comprend les espèces à floraison printanière): P. albiflora, P. bulbocodioides, P. chunii, P. × confusa, P. coronaria, P. formosana, P. forrestii, ¨P. grandiflora, P. hookeriana, P. praecox, P. × kohlsii, P. limprichtii, P. pleionoides, P. scopulorum, P. yunnanensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pleione</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleione</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces d’après Kew WCSP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(date ref :16/07/2018)
 Pleione albiflora 		P.J.Cribb &amp; C.Z.Tang
 Pleione arunachalensis 	Hareesh, P.Kumar &amp; M.Sabu
 Pleione aurita 		P.J.Cribb &amp; H.Pfennig 
@@ -628,8 +680,47 @@
 Pleione scopulorum 	        W.W.Sm. 
 Pleione vietnamensis 	Aver. &amp; P.J.Cribb in P.J.Cribb &amp; I.Butterfield 
 Pleione yunnanensis         (Rolfe) Rolfe 
-Hybrides naturels d’après Kew WCSP
-Pleione × christianii 		Perner 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pleione</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleione</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces d’après Kew WCSP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hybrides naturels d’après Kew WCSP</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleione × christianii 		Perner 
 Pleione × confusa 	  	        P.J.Cribb &amp; C.Z.Tang 
 Pleione × kingdonwardii 	        P.J.Cribb &amp; Butterf. 
 Pleione × kohlsii 		        Braem  
@@ -638,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pleione</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pleione</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France la culture est possible en serre alpine à l'abri du gel, et même très facilement en appartement, à condition de respecter une période de repos hivernal (frais et sec).
 </t>
